--- a/최종산출물/2. WBS/y2k4 간트 10_30.xlsx
+++ b/최종산출물/2. WBS/y2k4 간트 10_30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bootcamp\java\y2k4\최종산출물\2. WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C868D7-D1A3-4665-BDA5-B38B2CADAB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698A7942-9BF8-4A55-96FF-758403BC6BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <r>
       <rPr>
@@ -72,30 +72,12 @@
     <t>프로젝트 타이틀</t>
   </si>
   <si>
-    <t>컨테이너 기반 커스터마이징 전자결재 시스템</t>
-  </si>
-  <si>
     <t>구분</t>
   </si>
   <si>
     <t>공정</t>
   </si>
   <si>
-    <t>완료율</t>
-  </si>
-  <si>
-    <t>기간</t>
-  </si>
-  <si>
-    <t>시작 날짜</t>
-  </si>
-  <si>
-    <t>완료 날짜</t>
-  </si>
-  <si>
-    <t>담당자</t>
-  </si>
-  <si>
     <t>1일</t>
   </si>
   <si>
@@ -234,9 +216,6 @@
     <t>회원가입 기능</t>
   </si>
   <si>
-    <t>사용자 정보 암호화</t>
-  </si>
-  <si>
     <t>재무/회계 테이블 구축</t>
   </si>
   <si>
@@ -264,19 +243,7 @@
     <t>DB와 프론트 연결 테스트</t>
   </si>
   <si>
-    <t>컨테이너화</t>
-  </si>
-  <si>
-    <t>기능 선별</t>
-  </si>
-  <si>
-    <t>기능 컨테이너에 적재</t>
-  </si>
-  <si>
     <t>배포</t>
-  </si>
-  <si>
-    <t>버그 수정/리펙토링</t>
   </si>
   <si>
     <t>버그 수정</t>
@@ -371,18 +338,304 @@
       </rPr>
       <t>구축</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>암호화</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버그</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리펙토링</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 테넌시 및 결재 문서화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티 테넌시 작업</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 작업</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>대시보드 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 문서 로직 구현(각 테이블마다)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>: 개발중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>:개발 완료</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨테이너</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커스터마이징</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전자결재</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,11 +676,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -493,8 +741,94 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,8 +901,50 @@
         <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -577,107 +953,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -690,167 +984,164 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1013"/>
+  <dimension ref="A1:AS1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1085,19 +1376,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
       <c r="F1" s="1"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
+      <c r="Z1" s="10"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
@@ -1115,40 +1398,9 @@
       <c r="AS1" s="2"/>
     </row>
     <row r="2" spans="1:45" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -1164,1731 +1416,1661 @@
       <c r="AS2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
       <c r="AE3" s="55"/>
       <c r="AF3" s="55"/>
       <c r="AG3" s="55"/>
       <c r="AH3" s="55"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
     </row>
     <row r="4" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="E4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="R4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AC4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AD4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
     </row>
     <row r="5" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="7">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17">
         <v>45957</v>
       </c>
-      <c r="I5" s="7">
+      <c r="D5" s="17">
         <v>45958</v>
       </c>
-      <c r="J5" s="7">
+      <c r="E5" s="17">
         <v>45959</v>
       </c>
-      <c r="K5" s="7">
+      <c r="F5" s="17">
         <v>45960</v>
       </c>
-      <c r="L5" s="7">
+      <c r="G5" s="17">
         <v>45961</v>
       </c>
-      <c r="M5" s="7">
+      <c r="H5" s="18">
         <v>45964</v>
       </c>
-      <c r="N5" s="7">
+      <c r="I5" s="18">
         <v>45965</v>
       </c>
-      <c r="O5" s="7">
+      <c r="J5" s="18">
         <v>45966</v>
       </c>
-      <c r="P5" s="7">
+      <c r="K5" s="18">
         <v>45967</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="L5" s="18">
         <v>45968</v>
       </c>
-      <c r="R5" s="7">
+      <c r="M5" s="18">
         <v>45971</v>
       </c>
-      <c r="S5" s="7">
+      <c r="N5" s="18">
         <v>45972</v>
       </c>
-      <c r="T5" s="7">
+      <c r="O5" s="18">
         <v>45973</v>
       </c>
-      <c r="U5" s="7">
+      <c r="P5" s="18">
         <v>45974</v>
       </c>
-      <c r="V5" s="7">
+      <c r="Q5" s="18">
         <v>45975</v>
       </c>
-      <c r="W5" s="7">
+      <c r="R5" s="18">
         <v>45978</v>
       </c>
-      <c r="X5" s="7">
+      <c r="S5" s="18">
         <v>45979</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="T5" s="18">
         <v>45980</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="U5" s="18">
         <v>45981</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="V5" s="18">
         <v>45982</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="W5" s="18">
         <v>45985</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="X5" s="18">
         <v>45986</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="Y5" s="18">
         <v>45987</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="Z5" s="18">
         <v>45988</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AA5" s="18">
         <v>45989</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AB5" s="18">
         <v>45992</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AC5" s="18">
         <v>45993</v>
       </c>
-      <c r="AI5" s="7">
+      <c r="AD5" s="18">
         <v>45994</v>
       </c>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
     </row>
     <row r="6" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+    </row>
+    <row r="7" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+    </row>
+    <row r="8" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+    </row>
+    <row r="9" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+    </row>
+    <row r="10" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+    </row>
+    <row r="11" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="12">
-        <v>45957</v>
-      </c>
-      <c r="F6" s="12">
-        <v>45957</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14" t="s">
+      <c r="B11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-    </row>
-    <row r="7" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-      <c r="B7" s="9" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+    </row>
+    <row r="12" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="12">
-        <v>45957</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
-    </row>
-    <row r="8" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="17" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+    </row>
+    <row r="13" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="12">
-        <v>45958</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-    </row>
-    <row r="9" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-      <c r="B9" s="9" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+    </row>
+    <row r="14" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="12">
-        <v>45957</v>
-      </c>
-      <c r="F9" s="12">
-        <v>45957</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-    </row>
-    <row r="10" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
-      <c r="B10" s="9" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+    </row>
+    <row r="15" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-    </row>
-    <row r="11" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+    </row>
+    <row r="16" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+    </row>
+    <row r="17" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-    </row>
-    <row r="12" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="25" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+    </row>
+    <row r="18" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-    </row>
-    <row r="13" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-      <c r="B13" s="25" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+    </row>
+    <row r="19" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="10">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-    </row>
-    <row r="14" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-      <c r="B14" s="25" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+    </row>
+    <row r="20" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-    </row>
-    <row r="15" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-      <c r="B15" s="25" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+    </row>
+    <row r="21" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-    </row>
-    <row r="16" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-      <c r="B16" s="25" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V21" s="32"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+    </row>
+    <row r="22" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-    </row>
-    <row r="17" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-      <c r="B17" s="25" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+    </row>
+    <row r="23" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+    </row>
+    <row r="24" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15"/>
+      <c r="B24" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-    </row>
-    <row r="18" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-      <c r="B18" s="28" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+    </row>
+    <row r="25" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-    </row>
-    <row r="19" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-      <c r="B19" s="30" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+    </row>
+    <row r="26" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+    </row>
+    <row r="27" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15"/>
+      <c r="B27" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+    </row>
+    <row r="28" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+    </row>
+    <row r="29" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15"/>
+      <c r="B29" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="10">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-    </row>
-    <row r="20" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-      <c r="B20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-    </row>
-    <row r="21" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-      <c r="B21" s="30" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="U29" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="V29" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+    </row>
+    <row r="30" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15"/>
+      <c r="B30" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="15"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-    </row>
-    <row r="22" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-      <c r="B22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-    </row>
-    <row r="23" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-      <c r="B23" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="15"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="29"/>
-    </row>
-    <row r="24" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-    </row>
-    <row r="25" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-      <c r="B25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="29"/>
-      <c r="AS25" s="29"/>
-    </row>
-    <row r="26" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-      <c r="B26" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="29"/>
-      <c r="AL26" s="29"/>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="29"/>
-      <c r="AQ26" s="29"/>
-      <c r="AR26" s="29"/>
-      <c r="AS26" s="29"/>
-    </row>
-    <row r="27" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-      <c r="B27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29"/>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
-    </row>
-    <row r="28" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-    </row>
-    <row r="29" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-      <c r="B29" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="29"/>
-      <c r="AL29" s="29"/>
-      <c r="AM29" s="29"/>
-      <c r="AN29" s="29"/>
-      <c r="AO29" s="29"/>
-      <c r="AP29" s="29"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-    </row>
-    <row r="30" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
-      <c r="B30" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="29"/>
-      <c r="AL30" s="29"/>
-      <c r="AM30" s="29"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-      <c r="AP30" s="29"/>
-      <c r="AQ30" s="29"/>
-      <c r="AR30" s="29"/>
-      <c r="AS30" s="29"/>
-    </row>
-    <row r="31" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="47"/>
-      <c r="B31" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="29"/>
-      <c r="AS31" s="29"/>
-    </row>
-    <row r="32" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-      <c r="B32" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="23"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="23"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-    </row>
-    <row r="33" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-      <c r="B33" s="32" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y30" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+    </row>
+    <row r="31" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-    </row>
-    <row r="34" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-      <c r="B34" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-    </row>
-    <row r="35" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="32" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y31" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+    </row>
+    <row r="32" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15"/>
+      <c r="B32" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+    </row>
+    <row r="33" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+    </row>
+    <row r="34" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="15"/>
+      <c r="B34" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="S34" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="V34" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+    </row>
+    <row r="35" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+    </row>
+    <row r="36" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="X36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y36" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z36" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA36" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+    </row>
+    <row r="37" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-    </row>
-    <row r="36" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-      <c r="B36" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-    </row>
-    <row r="37" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-      <c r="B37" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
@@ -2899,412 +3081,518 @@
       <c r="Y37" s="26"/>
       <c r="Z37" s="26"/>
       <c r="AA37" s="26"/>
-      <c r="AB37" s="36"/>
-      <c r="AC37" s="36"/>
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="37"/>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-    </row>
-    <row r="38" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-      <c r="B38" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="36"/>
-      <c r="AC38" s="36"/>
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-    </row>
-    <row r="39" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-      <c r="B39" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-    </row>
-    <row r="40" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="47"/>
-      <c r="B40" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="34"/>
-    </row>
-    <row r="41" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="47"/>
-      <c r="B41" s="39" t="s">
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+    </row>
+    <row r="38" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="15"/>
+      <c r="B38" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="47"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA38" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="10">
-        <v>0</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="40"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="34"/>
-    </row>
-    <row r="42" spans="1:45" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="45"/>
-      <c r="B42" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="40"/>
-    </row>
-    <row r="43" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-    </row>
-    <row r="44" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="41"/>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="41"/>
-    </row>
-    <row r="45" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-    </row>
-    <row r="46" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-    </row>
-    <row r="47" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-    </row>
-    <row r="48" spans="1:45" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+    </row>
+    <row r="39" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="15"/>
+      <c r="B39" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+    </row>
+    <row r="40" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="X40" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y40" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z40" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA40" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+    </row>
+    <row r="41" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="X41" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA41" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15"/>
+      <c r="B42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+    </row>
+    <row r="43" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA43" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB43" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC43" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD43" s="28"/>
+    </row>
+    <row r="44" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="15"/>
+      <c r="B44" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB44" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC44" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD44" s="28"/>
+    </row>
+    <row r="45" spans="1:40" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="15"/>
+      <c r="B45" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="53"/>
+    </row>
+    <row r="46" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="6"/>
+    </row>
+    <row r="47" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="6"/>
+    </row>
+    <row r="48" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
     </row>
     <row r="49" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-    </row>
-    <row r="50" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="V50" s="43"/>
-    </row>
-    <row r="51" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+    </row>
+    <row r="50" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+    </row>
+    <row r="51" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+    </row>
+    <row r="52" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
+      <c r="V53" s="8"/>
     </row>
     <row r="54" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
@@ -4066,9 +4354,18 @@
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
     </row>
-    <row r="244" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E244" s="1"/>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+    </row>
     <row r="247" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="248" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="249" spans="5:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4836,24 +5133,14 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="Z1:AD1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:AI3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A42"/>
-    <mergeCell ref="E4:E5"/>
+  <mergeCells count="1">
+    <mergeCell ref="F3:AD3"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.62" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape"/>
